--- a/data/trans_orig/P16B15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5352EE8E-A52B-49D7-B00D-4F50BFED0436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC7C5E83-3408-4EC4-B6B5-F5D5A92BFCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{315CF988-CDCD-4879-AA1D-5CBF506B7EA6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E950C81-7EA8-4D6F-9552-90724CC84332}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="183">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -139,7 +139,7 @@
     <t>95,9%</t>
   </si>
   <si>
-    <t>79,97%</t>
+    <t>79,96%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -148,13 +148,13 @@
     <t>97,79%</t>
   </si>
   <si>
-    <t>91,13%</t>
+    <t>89,02%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>20,03%</t>
+    <t>20,04%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -163,7 +163,7 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>8,87%</t>
+    <t>10,98%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -172,7 +172,7 @@
     <t>98,43%</t>
   </si>
   <si>
-    <t>93,31%</t>
+    <t>92,25%</t>
   </si>
   <si>
     <t>96,81%</t>
@@ -181,13 +181,13 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>96,29%</t>
+    <t>96,07%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>6,69%</t>
+    <t>7,75%</t>
   </si>
   <si>
     <t>3,19%</t>
@@ -196,7 +196,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -208,13 +208,10 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>97,54%</t>
+    <t>97,43%</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -223,19 +220,16 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>2,57%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>95,99%</t>
+    <t>95,09%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -244,7 +238,7 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>97,33%</t>
+    <t>97,32%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -253,10 +247,7 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>97,51%</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -265,7 +256,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -274,16 +265,13 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>2,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -331,7 +319,7 @@
     <t>97,96%</t>
   </si>
   <si>
-    <t>90,74%</t>
+    <t>91,36%</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -340,13 +328,13 @@
     <t>99,04%</t>
   </si>
   <si>
-    <t>95,36%</t>
+    <t>95,13%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>9,26%</t>
+    <t>8,64%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -355,7 +343,7 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,87%</t>
   </si>
   <si>
     <t>97,45%</t>
@@ -379,7 +367,7 @@
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,87%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -388,7 +376,7 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,13%</t>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -397,31 +385,31 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,08%</t>
+    <t>99,07%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2015 (Tasa respuesta: 9,67%)</t>
@@ -454,7 +442,7 @@
     <t>93,17%</t>
   </si>
   <si>
-    <t>72,22%</t>
+    <t>71,97%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -463,13 +451,13 @@
     <t>94,67%</t>
   </si>
   <si>
-    <t>75,44%</t>
+    <t>78,88%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>27,78%</t>
+    <t>28,03%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -478,7 +466,7 @@
     <t>5,33%</t>
   </si>
   <si>
-    <t>24,56%</t>
+    <t>21,12%</t>
   </si>
   <si>
     <t>95,75%</t>
@@ -496,19 +484,19 @@
     <t>97,29%</t>
   </si>
   <si>
-    <t>91,56%</t>
+    <t>90,34%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>95,74%</t>
+    <t>94,47%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>94,69%</t>
+    <t>95,17%</t>
   </si>
   <si>
     <t>99,43%</t>
@@ -517,13 +505,13 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>8,44%</t>
+    <t>9,66%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>5,53%</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -532,7 +520,7 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>5,31%</t>
+    <t>4,83%</t>
   </si>
   <si>
     <t>98,94%</t>
@@ -541,13 +529,13 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,38%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>98,69%</t>
+    <t>98,7%</t>
   </si>
   <si>
     <t>1,06%</t>
@@ -556,19 +544,19 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,31%</t>
+    <t>1,3%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>96,58%</t>
+    <t>96,72%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -580,10 +568,7 @@
     <t>98,37%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>98,0%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -592,7 +577,7 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -601,10 +586,7 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>2,0%</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB20049F-8403-43F6-B2CF-77F9922E1BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0DB6DD-6227-4988-A43D-2300D63E9212}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1915,7 +1897,7 @@
         <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -1927,10 +1909,10 @@
         <v>255221</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -1954,7 +1936,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1963,13 +1945,13 @@
         <v>1793</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1978,13 +1960,13 @@
         <v>1793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2034,13 @@
         <v>187689</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>256</v>
@@ -2067,13 +2049,13 @@
         <v>264102</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
@@ -2082,13 +2064,13 @@
         <v>451793</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,13 +2085,13 @@
         <v>2960</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2118,13 +2100,13 @@
         <v>2660</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -2133,13 +2115,13 @@
         <v>5619</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,7 +2177,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA673E34-2ED3-4474-8D15-71D7FBA74A4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1BAB58-283E-4409-ABEC-E806097449C0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,7 +2216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2481,7 +2463,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -2496,7 +2478,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>22</v>
@@ -2511,7 +2493,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>22</v>
@@ -2535,7 +2517,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2550,7 +2532,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2565,7 +2547,7 @@
         <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2618,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -2651,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -2666,7 +2648,7 @@
         <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>22</v>
@@ -2690,7 +2672,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2705,7 +2687,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2720,7 +2702,7 @@
         <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,10 +2770,10 @@
         <v>48329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2806,7 +2788,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>22</v>
@@ -2818,10 +2800,10 @@
         <v>104404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -2839,13 +2821,13 @@
         <v>1007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2860,7 +2842,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2869,13 +2851,13 @@
         <v>1007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,7 +2928,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>22</v>
@@ -2961,7 +2943,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>22</v>
@@ -2976,7 +2958,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>22</v>
@@ -3000,7 +2982,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3015,7 +2997,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3030,7 +3012,7 @@
         <v>27</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,7 +3083,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>22</v>
@@ -3113,10 +3095,10 @@
         <v>250315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3128,10 +3110,10 @@
         <v>435765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3155,7 +3137,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3164,13 +3146,13 @@
         <v>1077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3179,13 +3161,13 @@
         <v>1077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,10 +3235,10 @@
         <v>349115</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3268,10 +3250,10 @@
         <v>433445</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -3283,10 +3265,10 @@
         <v>782561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>16</v>
@@ -3304,13 +3286,13 @@
         <v>1007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3319,13 +3301,13 @@
         <v>1077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3334,13 +3316,13 @@
         <v>2083</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,7 +3378,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3418,7 +3400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EE0958-3397-434F-A3D4-A7B1609B2A6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8640D-F408-4CD6-8E66-17F1C676F501}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3435,7 +3417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3679,7 +3661,7 @@
         <v>1947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
@@ -3697,7 +3679,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>22</v>
@@ -3709,10 +3691,10 @@
         <v>2854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -3730,7 +3712,7 @@
         <v>1019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
@@ -3751,7 +3733,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3760,13 +3742,13 @@
         <v>1019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,10 +3816,10 @@
         <v>18390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3852,7 +3834,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -3864,10 +3846,10 @@
         <v>23944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3885,13 +3867,13 @@
         <v>1348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3906,7 +3888,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3915,13 +3897,13 @@
         <v>1349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,7 +3974,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>22</v>
@@ -4007,7 +3989,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>22</v>
@@ -4022,7 +4004,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>22</v>
@@ -4046,7 +4028,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4061,7 +4043,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4076,7 +4058,7 @@
         <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,10 +4126,10 @@
         <v>71364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -4159,10 +4141,10 @@
         <v>93245</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -4174,13 +4156,13 @@
         <v>164609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4177,13 @@
         <v>1988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4210,13 +4192,13 @@
         <v>977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4225,13 +4207,13 @@
         <v>2965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,7 +4284,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>22</v>
@@ -4314,10 +4296,10 @@
         <v>223501</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -4329,10 +4311,10 @@
         <v>390057</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4356,7 +4338,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4365,13 +4347,13 @@
         <v>1016</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4380,13 +4362,13 @@
         <v>1016</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4436,13 @@
         <v>306836</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H22" s="7">
         <v>323</v>
@@ -4469,10 +4451,10 @@
         <v>372275</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -4484,13 +4466,13 @@
         <v>679110</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4487,13 @@
         <v>4355</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4520,13 +4502,13 @@
         <v>1993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -4535,13 +4517,13 @@
         <v>6349</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,7 +4579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC7C5E83-3408-4EC4-B6B5-F5D5A92BFCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4AC9D2D-8C28-4C69-9559-BDAFE896C812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E950C81-7EA8-4D6F-9552-90724CC84332}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CD25431-5E17-4132-8C5D-F85E54F42D75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="185">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -139,7 +139,7 @@
     <t>95,9%</t>
   </si>
   <si>
-    <t>79,96%</t>
+    <t>77,69%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -148,13 +148,13 @@
     <t>97,79%</t>
   </si>
   <si>
-    <t>89,02%</t>
+    <t>88,32%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>20,04%</t>
+    <t>22,31%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -163,7 +163,7 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>10,98%</t>
+    <t>11,68%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -172,7 +172,7 @@
     <t>98,43%</t>
   </si>
   <si>
-    <t>92,25%</t>
+    <t>90,72%</t>
   </si>
   <si>
     <t>96,81%</t>
@@ -181,13 +181,13 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>96,07%</t>
+    <t>96,69%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,75%</t>
+    <t>9,28%</t>
   </si>
   <si>
     <t>3,19%</t>
@@ -196,7 +196,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,93%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -208,10 +208,13 @@
     <t>98,92%</t>
   </si>
   <si>
+    <t>96,46%</t>
+  </si>
+  <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>97,43%</t>
+    <t>97,87%</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -220,16 +223,19 @@
     <t>1,08%</t>
   </si>
   <si>
+    <t>3,54%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,57%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>95,64%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -238,7 +244,7 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>97,32%</t>
+    <t>97,31%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -247,7 +253,10 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,51%</t>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -256,7 +265,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>4,36%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -265,13 +274,16 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,68%</t>
+    <t>2,69%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>2,49%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -319,7 +331,7 @@
     <t>97,96%</t>
   </si>
   <si>
-    <t>91,36%</t>
+    <t>91,12%</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -328,235 +340,223 @@
     <t>99,04%</t>
   </si>
   <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2015 (Tasa respuesta: 9,67%)</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>97,49%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>98,7%</t>
+    <t>98,71%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>2,51%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,3%</t>
+    <t>1,29%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>96,72%</t>
+    <t>96,49%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -565,10 +565,13 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -577,16 +580,19 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,51%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0DB6DD-6227-4988-A43D-2300D63E9212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CE4FF4-C13B-4CCA-A373-C9D4E400FD0D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1897,7 +1903,7 @@
         <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -1909,10 +1915,10 @@
         <v>255221</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -1936,7 +1942,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1945,13 +1951,13 @@
         <v>1793</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1960,13 +1966,13 @@
         <v>1793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2040,13 @@
         <v>187689</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>256</v>
@@ -2049,13 +2055,13 @@
         <v>264102</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
@@ -2064,13 +2070,13 @@
         <v>451793</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2091,13 @@
         <v>2960</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2100,13 +2106,13 @@
         <v>2660</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -2115,13 +2121,13 @@
         <v>5619</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2183,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1BAB58-283E-4409-ABEC-E806097449C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134A2A2A-2809-4C2C-92F7-11A358A14777}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2216,7 +2222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2463,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -2478,7 +2484,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>22</v>
@@ -2493,7 +2499,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>22</v>
@@ -2517,7 +2523,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2532,7 +2538,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2547,7 +2553,7 @@
         <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,7 +2624,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -2633,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -2648,7 +2654,7 @@
         <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>22</v>
@@ -2672,7 +2678,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2687,7 +2693,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2702,7 +2708,7 @@
         <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,10 +2776,10 @@
         <v>48329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2788,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>22</v>
@@ -2800,10 +2806,10 @@
         <v>104404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -2821,13 +2827,13 @@
         <v>1007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2842,7 +2848,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2851,13 +2857,13 @@
         <v>1007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,7 +2934,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>22</v>
@@ -2943,7 +2949,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>22</v>
@@ -2958,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>22</v>
@@ -2982,7 +2988,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2997,7 +3003,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3012,7 +3018,7 @@
         <v>27</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>22</v>
@@ -3095,10 +3101,10 @@
         <v>250315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3110,10 +3116,10 @@
         <v>435765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3137,7 +3143,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3146,13 +3152,13 @@
         <v>1077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3161,13 +3167,13 @@
         <v>1077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,10 +3241,10 @@
         <v>349115</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3250,10 +3256,10 @@
         <v>433445</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -3265,10 +3271,10 @@
         <v>782561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>16</v>
@@ -3286,13 +3292,13 @@
         <v>1007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3301,13 +3307,13 @@
         <v>1077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3316,13 +3322,13 @@
         <v>2083</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3384,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3400,7 +3406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8640D-F408-4CD6-8E66-17F1C676F501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB9FF2A-AB83-4591-95A4-194C5E81613B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3417,7 +3423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3661,7 +3667,7 @@
         <v>1947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
@@ -3679,7 +3685,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>22</v>
@@ -3691,10 +3697,10 @@
         <v>2854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -3712,7 +3718,7 @@
         <v>1019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
@@ -3733,7 +3739,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3742,13 +3748,13 @@
         <v>1019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,10 +3822,10 @@
         <v>18390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3834,7 +3840,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -3846,10 +3852,10 @@
         <v>23944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3867,13 +3873,13 @@
         <v>1348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3888,7 +3894,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3897,13 +3903,13 @@
         <v>1349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,7 +3980,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>22</v>
@@ -3989,7 +3995,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>22</v>
@@ -4004,7 +4010,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>22</v>
@@ -4028,7 +4034,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4043,7 +4049,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4058,7 +4064,7 @@
         <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,10 +4132,10 @@
         <v>71364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -4141,10 +4147,10 @@
         <v>93245</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -4156,13 +4162,13 @@
         <v>164609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4183,13 @@
         <v>1988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4192,13 +4198,13 @@
         <v>977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4207,13 +4213,13 @@
         <v>2965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,7 +4290,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>22</v>
@@ -4296,10 +4302,10 @@
         <v>223501</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -4311,10 +4317,10 @@
         <v>390057</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4338,7 +4344,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4347,7 +4353,7 @@
         <v>1016</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
@@ -4466,13 +4472,13 @@
         <v>679110</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>176</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4493,13 @@
         <v>4355</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4502,13 +4508,13 @@
         <v>1993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -4517,13 +4523,13 @@
         <v>6349</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,7 +4585,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4AC9D2D-8C28-4C69-9559-BDAFE896C812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC6B8BB-C98C-4CCB-92F8-C2D1272A8037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CD25431-5E17-4132-8C5D-F85E54F42D75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CAFDF4B-EAD1-4C5D-BC70-27E3C48A446E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="189">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -139,7 +139,7 @@
     <t>95,9%</t>
   </si>
   <si>
-    <t>77,69%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -148,13 +148,13 @@
     <t>97,79%</t>
   </si>
   <si>
-    <t>88,32%</t>
+    <t>91,13%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>22,31%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -163,7 +163,7 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>11,68%</t>
+    <t>8,87%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -172,7 +172,7 @@
     <t>98,43%</t>
   </si>
   <si>
-    <t>90,72%</t>
+    <t>93,31%</t>
   </si>
   <si>
     <t>96,81%</t>
@@ -181,13 +181,13 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>96,69%</t>
+    <t>96,29%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>6,69%</t>
   </si>
   <si>
     <t>3,19%</t>
@@ -196,7 +196,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,31%</t>
+    <t>3,71%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -208,391 +208,403 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>96,46%</t>
+    <t>95,61%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2012 (Tasa respuesta: 10,97%)</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2012 (Tasa respuesta: 10,97%)</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>1,99%</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CE4FF4-C13B-4CCA-A373-C9D4E400FD0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108916D4-EA89-49BD-9822-7924E782A026}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2205,7 +2217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134A2A2A-2809-4C2C-92F7-11A358A14777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4975A435-A71F-4DDA-A010-8F7608E720C9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3119,7 +3131,7 @@
         <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3152,13 +3164,13 @@
         <v>1077</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3167,13 +3179,13 @@
         <v>1077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,10 +3253,10 @@
         <v>349115</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3259,7 +3271,7 @@
         <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -3271,10 +3283,10 @@
         <v>782561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>16</v>
@@ -3292,13 +3304,13 @@
         <v>1007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3307,13 +3319,13 @@
         <v>1077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3322,13 +3334,13 @@
         <v>2083</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,7 +3418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB9FF2A-AB83-4591-95A4-194C5E81613B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E05F353-7575-4852-88F7-D7CB85BEF0F6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3423,7 +3435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3667,7 +3679,7 @@
         <v>1947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
@@ -3685,7 +3697,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>22</v>
@@ -3697,10 +3709,10 @@
         <v>2854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -3718,7 +3730,7 @@
         <v>1019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
@@ -3739,7 +3751,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3748,13 +3760,13 @@
         <v>1019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,10 +3834,10 @@
         <v>18390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3840,7 +3852,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -3852,10 +3864,10 @@
         <v>23944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3873,13 +3885,13 @@
         <v>1348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3894,7 +3906,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3903,13 +3915,13 @@
         <v>1349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,7 +3992,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>22</v>
@@ -4010,7 +4022,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>22</v>
@@ -4034,7 +4046,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4064,7 +4076,7 @@
         <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,10 +4144,10 @@
         <v>71364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -4147,10 +4159,10 @@
         <v>93245</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -4162,13 +4174,13 @@
         <v>164609</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4201,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4198,13 +4210,13 @@
         <v>977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4213,13 +4225,13 @@
         <v>2965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4302,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>22</v>
@@ -4302,10 +4314,10 @@
         <v>223501</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -4317,10 +4329,10 @@
         <v>390057</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4344,7 +4356,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4353,13 +4365,13 @@
         <v>1016</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4368,13 +4380,13 @@
         <v>1016</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4454,13 @@
         <v>306836</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>323</v>
@@ -4457,10 +4469,10 @@
         <v>372275</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -4472,13 +4484,13 @@
         <v>679110</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4505,13 @@
         <v>4355</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4508,13 +4520,13 @@
         <v>1993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -4523,13 +4535,13 @@
         <v>6349</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC6B8BB-C98C-4CCB-92F8-C2D1272A8037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0829CBAE-9319-4E3E-BB11-94192BB55135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CAFDF4B-EAD1-4C5D-BC70-27E3C48A446E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A33A5EAE-9CA5-45B1-86F4-D45BF096523B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="198">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,7 +79,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>52,67%</t>
@@ -109,7 +109,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -133,7 +133,7 @@
     <t>6,57%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>95,9%</t>
@@ -166,7 +166,7 @@
     <t>8,87%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>98,43%</t>
@@ -199,37 +199,52 @@
     <t>3,71%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>98,45%</t>
@@ -316,18 +331,12 @@
     <t>90,51%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
     <t>8,27%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
     <t>97,96%</t>
   </si>
   <si>
@@ -376,232 +385,250 @@
     <t>1,14%</t>
   </si>
   <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
   </si>
   <si>
     <t>1,99%</t>
@@ -1016,8 +1043,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108916D4-EA89-49BD-9822-7924E782A026}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDF0DAE-676C-4FC3-8F9A-2B177FACCC8E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1891,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>91401</v>
+        <v>51134</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>16</v>
@@ -1906,10 +1933,10 @@
         <v>22</v>
       </c>
       <c r="H19" s="7">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7">
-        <v>163820</v>
+        <v>83173</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>55</v>
@@ -1921,10 +1948,10 @@
         <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="N19" s="7">
-        <v>255221</v>
+        <v>134307</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>57</v>
@@ -1993,10 +2020,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D21" s="7">
-        <v>91401</v>
+        <v>51134</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -2008,10 +2035,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="I21" s="7">
-        <v>165613</v>
+        <v>84966</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -2023,10 +2050,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="N21" s="7">
-        <v>257014</v>
+        <v>136100</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -2040,55 +2067,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7">
-        <v>187689</v>
+        <v>40267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7">
+        <v>69</v>
+      </c>
+      <c r="I22" s="7">
+        <v>80648</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="7">
+        <v>110</v>
+      </c>
+      <c r="N22" s="7">
+        <v>120914</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="7">
-        <v>256</v>
-      </c>
-      <c r="I22" s="7">
-        <v>264102</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="7">
-        <v>450</v>
-      </c>
-      <c r="N22" s="7">
-        <v>451793</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,49 +2124,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>2960</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>2660</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>5619</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,63 +2175,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7">
+        <v>40267</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>69</v>
+      </c>
+      <c r="I24" s="7">
+        <v>80648</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>110</v>
+      </c>
+      <c r="N24" s="7">
+        <v>120914</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>194</v>
+      </c>
+      <c r="D25" s="7">
+        <v>187689</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="7">
+        <v>256</v>
+      </c>
+      <c r="I25" s="7">
+        <v>264102</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="7">
+        <v>450</v>
+      </c>
+      <c r="N25" s="7">
+        <v>451793</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2960</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2660</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5619</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>197</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>190649</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>259</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>266762</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>456</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>457412</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>82</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2217,8 +2400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4975A435-A71F-4DDA-A010-8F7608E720C9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B4F3EF-4BFE-4097-9CFB-2B7CDA35CF0C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2234,7 +2417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2481,7 +2664,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -2496,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>22</v>
@@ -2511,7 +2694,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>22</v>
@@ -2535,7 +2718,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2550,7 +2733,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2565,7 +2748,7 @@
         <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2819,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -2651,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -2666,7 +2849,7 @@
         <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>22</v>
@@ -2690,7 +2873,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2705,7 +2888,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2720,7 +2903,7 @@
         <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,10 +2971,10 @@
         <v>48329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2806,7 +2989,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>22</v>
@@ -2818,10 +3001,10 @@
         <v>104404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -2839,13 +3022,13 @@
         <v>1007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2860,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2869,13 +3052,13 @@
         <v>1007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,7 +3129,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>22</v>
@@ -2961,7 +3144,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>22</v>
@@ -2976,7 +3159,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>22</v>
@@ -3000,7 +3183,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3015,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3030,7 +3213,7 @@
         <v>27</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,49 +3275,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="D19" s="7">
-        <v>185450</v>
+        <v>106453</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="7">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="I19" s="7">
-        <v>250315</v>
+        <v>114404</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M19" s="7">
-        <v>400</v>
+        <v>207</v>
       </c>
       <c r="N19" s="7">
-        <v>435765</v>
+        <v>220856</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,37 +3338,37 @@
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1077</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>1077</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,10 +3377,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="D21" s="7">
-        <v>185450</v>
+        <v>106453</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -3209,10 +3392,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="I21" s="7">
-        <v>251392</v>
+        <v>114404</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -3224,10 +3407,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>401</v>
+        <v>207</v>
       </c>
       <c r="N21" s="7">
-        <v>436842</v>
+        <v>220856</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -3241,49 +3424,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>349115</v>
+        <v>78997</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7">
-        <v>398</v>
+        <v>123</v>
       </c>
       <c r="I22" s="7">
-        <v>433445</v>
+        <v>135911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M22" s="7">
-        <v>712</v>
+        <v>193</v>
       </c>
       <c r="N22" s="7">
-        <v>782561</v>
+        <v>214909</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>122</v>
@@ -3298,19 +3481,19 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3319,7 +3502,7 @@
         <v>1077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>15</v>
@@ -3328,19 +3511,19 @@
         <v>125</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>2083</v>
+        <v>1077</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,63 +3532,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>70</v>
+      </c>
+      <c r="D24" s="7">
+        <v>78997</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>124</v>
+      </c>
+      <c r="I24" s="7">
+        <v>136988</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>194</v>
+      </c>
+      <c r="N24" s="7">
+        <v>215986</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>314</v>
+      </c>
+      <c r="D25" s="7">
+        <v>349115</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="7">
+        <v>398</v>
+      </c>
+      <c r="I25" s="7">
+        <v>433446</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="7">
+        <v>712</v>
+      </c>
+      <c r="N25" s="7">
+        <v>782561</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1007</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1077</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2083</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>315</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>350122</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>399</v>
       </c>
-      <c r="I24" s="7">
-        <v>434522</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>434523</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>714</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>784644</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>82</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3418,8 +3757,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E05F353-7575-4852-88F7-D7CB85BEF0F6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA74ADFE-9301-4FDB-92E9-F9890BCDBF51}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3435,7 +3774,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3679,7 +4018,7 @@
         <v>1947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
@@ -3697,7 +4036,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>22</v>
@@ -3709,10 +4048,10 @@
         <v>2854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -3730,7 +4069,7 @@
         <v>1019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
@@ -3751,7 +4090,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3760,13 +4099,13 @@
         <v>1019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,10 +4173,10 @@
         <v>18390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3852,7 +4191,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -3864,10 +4203,10 @@
         <v>23944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3885,13 +4224,13 @@
         <v>1348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3906,7 +4245,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3915,13 +4254,13 @@
         <v>1349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,7 +4331,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>22</v>
@@ -4007,7 +4346,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>22</v>
@@ -4022,7 +4361,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>22</v>
@@ -4046,7 +4385,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4061,7 +4400,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4076,7 +4415,7 @@
         <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,10 +4483,10 @@
         <v>71364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -4159,10 +4498,10 @@
         <v>93245</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -4174,13 +4513,13 @@
         <v>164609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4534,13 @@
         <v>1988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4210,13 +4549,13 @@
         <v>977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4225,13 +4564,13 @@
         <v>2965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,46 +4632,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7">
-        <v>166556</v>
+        <v>95006</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="7">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="I19" s="7">
-        <v>223501</v>
+        <v>104679</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>368</v>
+        <v>193</v>
       </c>
       <c r="N19" s="7">
-        <v>390057</v>
+        <v>199685</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4356,7 +4695,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4365,13 +4704,13 @@
         <v>1016</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4380,13 +4719,13 @@
         <v>1016</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,10 +4734,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="D21" s="7">
-        <v>166556</v>
+        <v>95006</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -4410,10 +4749,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="I21" s="7">
-        <v>224517</v>
+        <v>105695</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -4425,10 +4764,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>369</v>
+        <v>194</v>
       </c>
       <c r="N21" s="7">
-        <v>391073</v>
+        <v>200701</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -4442,55 +4781,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>306</v>
+        <v>86</v>
       </c>
       <c r="D22" s="7">
-        <v>306836</v>
+        <v>71549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7">
-        <v>323</v>
+        <v>89</v>
       </c>
       <c r="I22" s="7">
-        <v>372275</v>
+        <v>118823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M22" s="7">
-        <v>629</v>
+        <v>175</v>
       </c>
       <c r="N22" s="7">
-        <v>679110</v>
+        <v>190372</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,49 +4838,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>4355</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1993</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6349</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,63 +4889,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>86</v>
+      </c>
+      <c r="D24" s="7">
+        <v>71549</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>89</v>
+      </c>
+      <c r="I24" s="7">
+        <v>118823</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>175</v>
+      </c>
+      <c r="N24" s="7">
+        <v>190372</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>306</v>
+      </c>
+      <c r="D25" s="7">
+        <v>306836</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="7">
+        <v>323</v>
+      </c>
+      <c r="I25" s="7">
+        <v>372275</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="7">
+        <v>629</v>
+      </c>
+      <c r="N25" s="7">
+        <v>679110</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4355</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1993</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6349</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>310</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>311191</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>325</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>374268</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>635</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>685459</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>82</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
